--- a/outputs/SORs/SOR Testing_PES NA Strategy & Mktg.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Strategy & Mktg.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -631,13 +631,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>0.2703</v>
+        <v>0.2128</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>0.2857</v>
+        <v>0.2222</v>
       </c>
     </row>
     <row r="3">
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>0.29997</v>
+        <v>0.225</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>0.24327</v>
+        <v>0.19152</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>0.25713</v>
+        <v>0.19998</v>
       </c>
     </row>
     <row r="4">
@@ -991,7 +991,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1050,7 +1050,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1109,7 +1109,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4014,7 +4014,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4071,7 +4073,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_PES NA Strategy & Mktg.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Strategy & Mktg.xlsx
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="10" t="n">
         <v>0.0833333333333333</v>

--- a/outputs/SORs/SOR Testing_PES NA Strategy & Mktg.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Strategy & Mktg.xlsx
@@ -991,7 +991,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1050,7 +1050,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1109,7 +1109,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1133,37 +1133,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>1</v>
+        <v>1.7143</v>
       </c>
     </row>
     <row r="5">
@@ -1375,7 +1375,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1446,7 +1446,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1517,7 +1517,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1541,37 +1541,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>0.0333416666666667</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0</v>
+        <v>0.100025</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0</v>
+        <v>0.0333416666666667</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0</v>
+        <v>0.0333416666666667</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>0.0333416666666667</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0</v>
+        <v>0.100025</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0</v>
+        <v>0.0333416666666667</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0</v>
+        <v>0.0333416666666667</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0</v>
+        <v>0.0333416666666667</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0</v>
+        <v>0.100025</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0</v>
+        <v>0.4001</v>
       </c>
     </row>
     <row r="5">
@@ -3603,7 +3603,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0</v>
+        <v>0.2174</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3674,7 +3674,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0</v>
+        <v>0.2174</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3745,7 +3745,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0</v>
+        <v>0.2174</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3769,37 +3769,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0</v>
+        <v>0.13045</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0</v>
+        <v>0.13045</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0</v>
+        <v>0.13045</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0</v>
+        <v>0.5218</v>
       </c>
     </row>
     <row r="5">
@@ -4014,9 +4014,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4073,9 +4071,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_PES NA Strategy & Mktg.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Strategy & Mktg.xlsx
@@ -16,12 +16,13 @@
     <sheet name="Tipp City Ohio" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Indianapolis Indiana" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Milwaukee Pmc Hq Wisconsin" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Piedras Negras Fasco Mexico" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -142,12 +143,15 @@
   <si>
     <t xml:space="preserve">Milwaukee Pmc Hq Wisconsin</t>
   </si>
+  <si>
+    <t xml:space="preserve">Piedras Negras Fasco Mexico</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -158,6 +162,7 @@
     <numFmt numFmtId="172" formatCode="0.0%"/>
     <numFmt numFmtId="173" formatCode="0.0%"/>
     <numFmt numFmtId="174" formatCode="0.0%"/>
+    <numFmt numFmtId="175" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -193,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -205,6 +210,7 @@
     <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,7 +801,9 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -836,7 +844,9 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -890,6 +900,65 @@
       </c>
       <c r="W6" s="1" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +1060,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0.7143</v>
+        <v>0.4</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1050,7 +1119,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0.7143</v>
+        <v>0.4</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1109,7 +1178,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0.7143</v>
+        <v>0.4</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1127,43 +1196,43 @@
         <v>0</v>
       </c>
       <c r="K4" s="10" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="10" t="n">
-        <v>0.142858333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0.428575</v>
+        <v>0.4348</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.142858333333333</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.142858333333333</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.142858333333333</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.428575</v>
+        <v>0.2</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.142858333333333</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.142858333333333</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.142858333333333</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.428575</v>
+        <v>0.2</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>1.7143</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
@@ -1179,7 +1248,9 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10" t="n">
+        <v>0.5</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -1220,7 +1291,9 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="10" t="n">
+        <v>0.5</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -1274,6 +1347,225 @@
       </c>
       <c r="W6" s="10" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S7" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V7" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W7" s="10" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +1667,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.0481</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1446,7 +1738,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.0481</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1517,13 +1809,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.0481</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.0556</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>0</v>
@@ -1532,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.0518</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0</v>
@@ -1541,37 +1833,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0.0333416666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0.100025</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.0333416666666667</v>
+        <v>0.00801666666666667</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.0333416666666667</v>
+        <v>0.00801666666666667</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.0333416666666667</v>
+        <v>0.00801666666666667</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.100025</v>
+        <v>0.02405</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.0333416666666667</v>
+        <v>0.00801666666666667</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.0333416666666667</v>
+        <v>0.00801666666666667</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0333416666666667</v>
+        <v>0.00801666666666667</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.100025</v>
+        <v>0.02405</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.4001</v>
+        <v>0.0962</v>
       </c>
     </row>
     <row r="5">
@@ -2787,7 +3079,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0</v>
+        <v>0.1087</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2858,7 +3150,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0</v>
+        <v>0.1087</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2929,7 +3221,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
+        <v>0.1087</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2953,37 +3245,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0</v>
+        <v>0.1031</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0</v>
+        <v>0.0181166666666667</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0</v>
+        <v>0.0181166666666667</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0</v>
+        <v>0.0181166666666667</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0</v>
+        <v>0.05435</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0</v>
+        <v>0.0181166666666667</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0</v>
+        <v>0.0181166666666667</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0</v>
+        <v>0.0181166666666667</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0</v>
+        <v>0.05435</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0</v>
+        <v>0.2174</v>
       </c>
     </row>
     <row r="5">
@@ -3603,7 +3895,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.2174</v>
+        <v>0.0952</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3674,7 +3966,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.2174</v>
+        <v>0.0952</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3745,7 +4037,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.2174</v>
+        <v>0.0952</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3763,43 +4055,43 @@
         <v>0</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0.0434833333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0.13045</v>
+        <v>0.1</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.0158666666666667</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.0158666666666667</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.0158666666666667</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.13045</v>
+        <v>0.0476</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.0158666666666667</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.0158666666666667</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.0158666666666667</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.13045</v>
+        <v>0.0476</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0.5218</v>
+        <v>0.1904</v>
       </c>
     </row>
     <row r="5">

--- a/outputs/SORs/SOR Testing_PES NA Strategy & Mktg.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Strategy & Mktg.xlsx
@@ -801,9 +801,7 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -844,9 +842,7 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -900,65 +896,6 @@
       </c>
       <c r="W6" s="1" t="n">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +997,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0.4</v>
+        <v>0.1754</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1119,7 +1056,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0.4</v>
+        <v>0.1754</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1178,7 +1115,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0.4</v>
+        <v>0.1754</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1196,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="10" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L4" s="10" t="n">
         <v>0</v>
@@ -1205,34 +1142,34 @@
         <v>0</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0.4348</v>
+        <v>0.1887</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.0666666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.0666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.0666666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.0666666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.0666666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.0666666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1249,7 +1186,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1292,7 +1229,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1363,7 +1300,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1379,37 +1316,35 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="10"/>
       <c r="P7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="T7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="U7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="W7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1667,7 +1602,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0481</v>
+        <v>0.049</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1738,7 +1673,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.0481</v>
+        <v>0.049</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1809,13 +1744,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.0481</v>
+        <v>0.049</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.0556</v>
+        <v>0.0588</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>0</v>
@@ -1824,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0518</v>
+        <v>0.0546</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0</v>
@@ -1839,31 +1774,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.00801666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.00801666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.00801666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.02405</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.00801666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.00801666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.00801666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.02405</v>
+        <v>0</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.0962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2075,7 +2010,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0</v>
+        <v>0.0543</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2146,7 +2081,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0</v>
+        <v>0.0543</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2217,7 +2152,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0</v>
+        <v>0.0543</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2247,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>0</v>
@@ -2483,7 +2418,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.0457</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2554,7 +2489,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>0.0457</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2625,7 +2560,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>0.0457</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2655,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>0.0323</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>0</v>
@@ -2680,6 +2615,63 @@
       </c>
       <c r="W4" s="4" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3079,7 +3071,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.1087</v>
+        <v>0.1099</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3150,7 +3142,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.1087</v>
+        <v>0.1099</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3221,7 +3213,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.1087</v>
+        <v>0.1099</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3251,31 +3243,31 @@
         <v>0.1031</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0181166666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0181166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.0181166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.05435</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0181166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0181166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0181166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05435</v>
+        <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3895,7 +3887,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.0952</v>
+        <v>0.1942</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3966,7 +3958,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.0952</v>
+        <v>0.1942</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4037,7 +4029,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.0952</v>
+        <v>0.1942</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4067,31 +4059,31 @@
         <v>0.1</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.0158666666666667</v>
+        <v>0.1111</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.0158666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.0158666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.0476</v>
+        <v>0</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.0158666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.0158666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.0158666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.0476</v>
+        <v>0</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0.1904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
